--- a/nr-add-ruim-note/ig/StructureDefinition-FrRangeUcum.xlsx
+++ b/nr-add-ruim-note/ig/StructureDefinition-FrRangeUcum.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="118">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interopsante.org/fhir/StructureDefinition/FrRangeUcum</t>
+    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRangeUcum</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18</t>
+    <t>2024-12-26T09:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Copyright</t>
-  </si>
-  <si>
-    <t>Interop'Santé 2021</t>
   </si>
   <si>
     <t>FHIR Version</t>
@@ -338,6 +335,9 @@
     <t>Range.low</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityUcum}
 </t>
   </si>
@@ -348,26 +348,35 @@
     <t>unit of measure SHALL be UCUM encoded</t>
   </si>
   <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use explicitely excludes the use of the simpleQuantity "comparator" element.</t>
+    <t>If the low element is missing, the low boundary is not known.</t>
   </si>
   <si>
     <t>force UCUM unit encoding</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>NR.1</t>
+  </si>
+  <si>
+    <t>./low</t>
   </si>
   <si>
     <t>Range.high</t>
   </si>
   <si>
     <t>high bound with UCUM unit</t>
+  </si>
+  <si>
+    <t>If the high element is missing, the high boundary is not known.</t>
+  </si>
+  <si>
+    <t>NR.2</t>
+  </si>
+  <si>
+    <t>./high</t>
   </si>
 </sst>
 </file>
@@ -615,56 +624,54 @@
       <c r="A14" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>25</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>36</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -724,126 +731,126 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>73</v>
       </c>
-      <c r="AK1" t="s" s="1">
+      <c r="AL1" t="s" s="1">
         <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -851,31 +858,31 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="H2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -925,33 +932,33 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -959,28 +966,28 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1031,45 +1038,45 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
       </c>
@@ -1080,16 +1087,16 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1127,45 +1134,45 @@
         <v>20</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AF4" t="s" s="2">
+      <c r="AG4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AG4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1173,10 +1180,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1185,7 +1192,7 @@
         <v>20</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>105</v>
@@ -1249,16 +1256,16 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>110</v>
@@ -1283,10 +1290,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1295,7 +1302,7 @@
         <v>20</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>105</v>
@@ -1307,7 +1314,7 @@
         <v>107</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O6" t="s" s="2">
         <v>109</v>
@@ -1362,22 +1369,22 @@
         <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>110</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
